--- a/biology/Zoologie/Cybiosarda_elegans/Cybiosarda_elegans.xlsx
+++ b/biology/Zoologie/Cybiosarda_elegans/Cybiosarda_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cybiosarda elegans ou Bonite à dos tacheté est une espèce de poissons de la famille des Scombridés, seule représentante du genre monotypique Cybiosarda.
 On la trouve autour de l'Australie et au sud de la Papouasie-Nouvelle-Guinée.
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cybiosarda elegans (Whitley, 1935)[2].
-L'espèce a été initialement classée dans le genre Scomberomorus sous le protonyme Scomberomorus elegans Whitley, 1935[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bonite à dos tacheté[2],[3], Bonito à dos tacheté[2].
-Cybiosarda elegans a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cybiosarda elegans (Whitley, 1935).
+L'espèce a été initialement classée dans le genre Scomberomorus sous le protonyme Scomberomorus elegans Whitley, 1935.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bonite à dos tacheté Bonito à dos tacheté.
+Cybiosarda elegans a pour synonymes :
 Gymnosarda elegans (Whitley, 1935)
 Scomberomorus elegans Whitley, 1935</t>
         </is>
